--- a/data/trans_orig/P05A05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05A05-Habitat-trans_orig.xlsx
@@ -10,7 +10,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2007" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2012" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2016" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5547,1684 +5546,4 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:W24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
-    <col width="14" customWidth="1" min="15" max="15"/>
-    <col width="14" customWidth="1" min="16" max="16"/>
-    <col width="14" customWidth="1" min="17" max="17"/>
-    <col width="14" customWidth="1" min="18" max="18"/>
-    <col width="14" customWidth="1" min="19" max="19"/>
-    <col width="14" customWidth="1" min="20" max="20"/>
-    <col width="14" customWidth="1" min="21" max="21"/>
-    <col width="14" customWidth="1" min="22" max="22"/>
-    <col width="14" customWidth="1" min="23" max="23"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Población según si en el barrio donde vive hay espacios verdes suficientes [En 2023 se pregunta en negativo] en 2023 (tasa de respuesta: 99,84%)</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
-      <c r="K1" s="3" t="n"/>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
-      <c r="O1" s="3" t="n"/>
-      <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="R1" s="3" t="n"/>
-      <c r="S1" s="3" t="n"/>
-      <c r="T1" s="3" t="n"/>
-      <c r="U1" s="3" t="n"/>
-      <c r="V1" s="3" t="n"/>
-      <c r="W1" s="3" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>n (muestra)</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím inf IC)</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím sup IC)</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Estimación puntual</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>lím inf IC</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>lím sup IC</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>n (muestra)</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím inf IC)</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím sup IC)</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Estimación puntual</t>
-        </is>
-      </c>
-      <c r="O2" s="3" t="inlineStr">
-        <is>
-          <t>lím inf IC</t>
-        </is>
-      </c>
-      <c r="P2" s="3" t="inlineStr">
-        <is>
-          <t>lím sup IC</t>
-        </is>
-      </c>
-      <c r="Q2" s="3" t="inlineStr">
-        <is>
-          <t>n (muestra)</t>
-        </is>
-      </c>
-      <c r="R2" s="3" t="inlineStr">
-        <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="S2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím inf IC)</t>
-        </is>
-      </c>
-      <c r="T2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím sup IC)</t>
-        </is>
-      </c>
-      <c r="U2" s="3" t="inlineStr">
-        <is>
-          <t>Estimación puntual</t>
-        </is>
-      </c>
-      <c r="V2" s="3" t="inlineStr">
-        <is>
-          <t>lím inf IC</t>
-        </is>
-      </c>
-      <c r="W2" s="3" t="inlineStr">
-        <is>
-          <t>lím sup IC</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
-      <c r="O3" s="2" t="n"/>
-      <c r="P3" s="2" t="n"/>
-      <c r="Q3" s="2" t="n"/>
-      <c r="R3" s="2" t="n"/>
-      <c r="S3" s="2" t="n"/>
-      <c r="T3" s="2" t="n"/>
-      <c r="U3" s="2" t="n"/>
-      <c r="V3" s="2" t="n"/>
-      <c r="W3" s="2" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>&lt;10.000 hab</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>16417</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>9066</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>28322</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>0.02381995468392435</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>0.01315445164146338</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>0.04109354107716177</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>23</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>15181</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>9964</v>
-      </c>
-      <c r="M4" s="5" t="n">
-        <v>23060</v>
-      </c>
-      <c r="N4" s="6" t="n">
-        <v>0.02069655000742313</v>
-      </c>
-      <c r="O4" s="6" t="n">
-        <v>0.01358391058469361</v>
-      </c>
-      <c r="P4" s="6" t="n">
-        <v>0.03143896004058933</v>
-      </c>
-      <c r="Q4" s="5" t="n">
-        <v>37</v>
-      </c>
-      <c r="R4" s="5" t="n">
-        <v>31597</v>
-      </c>
-      <c r="S4" s="5" t="n">
-        <v>22564</v>
-      </c>
-      <c r="T4" s="5" t="n">
-        <v>44664</v>
-      </c>
-      <c r="U4" s="6" t="n">
-        <v>0.02220964597469248</v>
-      </c>
-      <c r="V4" s="6" t="n">
-        <v>0.01586001991889384</v>
-      </c>
-      <c r="W4" s="6" t="n">
-        <v>0.0313944740690347</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>42</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>36123</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>26029</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>49115</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>0.05241309473444954</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>0.03776625440679565</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>0.07126351784648421</v>
-      </c>
-      <c r="J5" s="5" t="n">
-        <v>60</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>38868</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>29714</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>50975</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <v>0.05299123757007114</v>
-      </c>
-      <c r="O5" s="6" t="n">
-        <v>0.04051094286345741</v>
-      </c>
-      <c r="P5" s="6" t="n">
-        <v>0.06949703447110604</v>
-      </c>
-      <c r="Q5" s="5" t="n">
-        <v>102</v>
-      </c>
-      <c r="R5" s="5" t="n">
-        <v>74991</v>
-      </c>
-      <c r="S5" s="5" t="n">
-        <v>59728</v>
-      </c>
-      <c r="T5" s="5" t="n">
-        <v>90410</v>
-      </c>
-      <c r="U5" s="6" t="n">
-        <v>0.05271116320133303</v>
-      </c>
-      <c r="V5" s="6" t="n">
-        <v>0.04198308372516774</v>
-      </c>
-      <c r="W5" s="6" t="n">
-        <v>0.0635489215290687</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>672</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>636660</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>620070</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>648659</v>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>0.9237669505816259</v>
-      </c>
-      <c r="H6" s="6" t="n">
-        <v>0.8996957062900004</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>0.9411761749316898</v>
-      </c>
-      <c r="J6" s="5" t="n">
-        <v>1157</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>679431</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>665811</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>690360</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <v>0.9263122124225057</v>
-      </c>
-      <c r="O6" s="6" t="n">
-        <v>0.9077423940528573</v>
-      </c>
-      <c r="P6" s="6" t="n">
-        <v>0.9412111430815868</v>
-      </c>
-      <c r="Q6" s="5" t="n">
-        <v>1829</v>
-      </c>
-      <c r="R6" s="5" t="n">
-        <v>1316092</v>
-      </c>
-      <c r="S6" s="5" t="n">
-        <v>1294595</v>
-      </c>
-      <c r="T6" s="5" t="n">
-        <v>1333358</v>
-      </c>
-      <c r="U6" s="6" t="n">
-        <v>0.9250791908239744</v>
-      </c>
-      <c r="V6" s="6" t="n">
-        <v>0.909968865009136</v>
-      </c>
-      <c r="W6" s="6" t="n">
-        <v>0.9372155361280959</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>728</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>689200</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>689200</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>689200</v>
-      </c>
-      <c r="G7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>1240</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>733480</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>733480</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>733480</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="5" t="n">
-        <v>1968</v>
-      </c>
-      <c r="R7" s="5" t="n">
-        <v>1422680</v>
-      </c>
-      <c r="S7" s="5" t="n">
-        <v>1422680</v>
-      </c>
-      <c r="T7" s="5" t="n">
-        <v>1422680</v>
-      </c>
-      <c r="U7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>10-50.000 hab</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>51</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>60081</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>45687</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>78148</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>0.05727903404347803</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>0.04355658199790192</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>0.07450307465787323</v>
-      </c>
-      <c r="J8" s="5" t="n">
-        <v>73</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>57837</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>45089</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>72493</v>
-      </c>
-      <c r="N8" s="6" t="n">
-        <v>0.05409394116370222</v>
-      </c>
-      <c r="O8" s="6" t="n">
-        <v>0.04217115206195215</v>
-      </c>
-      <c r="P8" s="6" t="n">
-        <v>0.06780092044550184</v>
-      </c>
-      <c r="Q8" s="5" t="n">
-        <v>124</v>
-      </c>
-      <c r="R8" s="5" t="n">
-        <v>117918</v>
-      </c>
-      <c r="S8" s="5" t="n">
-        <v>97031</v>
-      </c>
-      <c r="T8" s="5" t="n">
-        <v>141662</v>
-      </c>
-      <c r="U8" s="6" t="n">
-        <v>0.05567123731143261</v>
-      </c>
-      <c r="V8" s="6" t="n">
-        <v>0.04580990514803169</v>
-      </c>
-      <c r="W8" s="6" t="n">
-        <v>0.06688094970778932</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>76</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>87871</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>69236</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>107902</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>0.08377306662019399</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>0.06600698600713176</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>0.1028701748034641</v>
-      </c>
-      <c r="J9" s="5" t="n">
-        <v>125</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>90635</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>75910</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>107226</v>
-      </c>
-      <c r="N9" s="6" t="n">
-        <v>0.08476900992967348</v>
-      </c>
-      <c r="O9" s="6" t="n">
-        <v>0.07099669901214048</v>
-      </c>
-      <c r="P9" s="6" t="n">
-        <v>0.1002865608498758</v>
-      </c>
-      <c r="Q9" s="5" t="n">
-        <v>201</v>
-      </c>
-      <c r="R9" s="5" t="n">
-        <v>178506</v>
-      </c>
-      <c r="S9" s="5" t="n">
-        <v>152866</v>
-      </c>
-      <c r="T9" s="5" t="n">
-        <v>207791</v>
-      </c>
-      <c r="U9" s="6" t="n">
-        <v>0.08427580687259013</v>
-      </c>
-      <c r="V9" s="6" t="n">
-        <v>0.07217060683979895</v>
-      </c>
-      <c r="W9" s="6" t="n">
-        <v>0.0981016894202462</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>837</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>900965</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>877648</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>925379</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>0.858947899336328</v>
-      </c>
-      <c r="H10" s="6" t="n">
-        <v>0.8367185647785623</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>0.8822237548469117</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>1315</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>920728</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>897815</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>938811</v>
-      </c>
-      <c r="N10" s="6" t="n">
-        <v>0.8611370489066242</v>
-      </c>
-      <c r="O10" s="6" t="n">
-        <v>0.8397075510905027</v>
-      </c>
-      <c r="P10" s="6" t="n">
-        <v>0.8780501557101447</v>
-      </c>
-      <c r="Q10" s="5" t="n">
-        <v>2152</v>
-      </c>
-      <c r="R10" s="5" t="n">
-        <v>1821694</v>
-      </c>
-      <c r="S10" s="5" t="n">
-        <v>1786016</v>
-      </c>
-      <c r="T10" s="5" t="n">
-        <v>1852947</v>
-      </c>
-      <c r="U10" s="6" t="n">
-        <v>0.8600529558159772</v>
-      </c>
-      <c r="V10" s="6" t="n">
-        <v>0.8432088760376736</v>
-      </c>
-      <c r="W10" s="6" t="n">
-        <v>0.8748082365932307</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>964</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>1048917</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>1048917</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>1048917</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>1513</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>1069200</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>1069200</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>1069200</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5" t="n">
-        <v>2477</v>
-      </c>
-      <c r="R11" s="5" t="n">
-        <v>2118118</v>
-      </c>
-      <c r="S11" s="5" t="n">
-        <v>2118118</v>
-      </c>
-      <c r="T11" s="5" t="n">
-        <v>2118118</v>
-      </c>
-      <c r="U11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>&gt;50.000 hab</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>52</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>58988</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>44868</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>78060</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>0.07356080635294639</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>0.05595268088885839</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>0.09734462679754473</v>
-      </c>
-      <c r="J12" s="5" t="n">
-        <v>94</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>75287</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>62236</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>92105</v>
-      </c>
-      <c r="N12" s="6" t="n">
-        <v>0.09276487406687373</v>
-      </c>
-      <c r="O12" s="6" t="n">
-        <v>0.07668414333211077</v>
-      </c>
-      <c r="P12" s="6" t="n">
-        <v>0.1134869952841306</v>
-      </c>
-      <c r="Q12" s="5" t="n">
-        <v>146</v>
-      </c>
-      <c r="R12" s="5" t="n">
-        <v>134275</v>
-      </c>
-      <c r="S12" s="5" t="n">
-        <v>113243</v>
-      </c>
-      <c r="T12" s="5" t="n">
-        <v>159191</v>
-      </c>
-      <c r="U12" s="6" t="n">
-        <v>0.0832205234938119</v>
-      </c>
-      <c r="V12" s="6" t="n">
-        <v>0.07018550570569466</v>
-      </c>
-      <c r="W12" s="6" t="n">
-        <v>0.09866288653046512</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>133</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>156891</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>135289</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>186970</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>0.1956503404675785</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>0.1687110061834377</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>0.2331598943417217</v>
-      </c>
-      <c r="J13" s="5" t="n">
-        <v>211</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>166906</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>146235</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>189374</v>
-      </c>
-      <c r="N13" s="6" t="n">
-        <v>0.2056538395966625</v>
-      </c>
-      <c r="O13" s="6" t="n">
-        <v>0.1801831767185928</v>
-      </c>
-      <c r="P13" s="6" t="n">
-        <v>0.2333379225310624</v>
-      </c>
-      <c r="Q13" s="5" t="n">
-        <v>344</v>
-      </c>
-      <c r="R13" s="5" t="n">
-        <v>323797</v>
-      </c>
-      <c r="S13" s="5" t="n">
-        <v>293670</v>
-      </c>
-      <c r="T13" s="5" t="n">
-        <v>360203</v>
-      </c>
-      <c r="U13" s="6" t="n">
-        <v>0.2006821375558468</v>
-      </c>
-      <c r="V13" s="6" t="n">
-        <v>0.182009793592869</v>
-      </c>
-      <c r="W13" s="6" t="n">
-        <v>0.2232457697375453</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>490</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>586016</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>555238</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>613876</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>0.7307888531794752</v>
-      </c>
-      <c r="H14" s="6" t="n">
-        <v>0.6924067967094315</v>
-      </c>
-      <c r="I14" s="6" t="n">
-        <v>0.765531906167951</v>
-      </c>
-      <c r="J14" s="5" t="n">
-        <v>741</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>569395</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>545117</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>591826</v>
-      </c>
-      <c r="N14" s="6" t="n">
-        <v>0.7015812863364638</v>
-      </c>
-      <c r="O14" s="6" t="n">
-        <v>0.6716671574616733</v>
-      </c>
-      <c r="P14" s="6" t="n">
-        <v>0.7292193243116496</v>
-      </c>
-      <c r="Q14" s="5" t="n">
-        <v>1231</v>
-      </c>
-      <c r="R14" s="5" t="n">
-        <v>1155411</v>
-      </c>
-      <c r="S14" s="5" t="n">
-        <v>1114111</v>
-      </c>
-      <c r="T14" s="5" t="n">
-        <v>1188845</v>
-      </c>
-      <c r="U14" s="6" t="n">
-        <v>0.7160973389503413</v>
-      </c>
-      <c r="V14" s="6" t="n">
-        <v>0.6905004140309519</v>
-      </c>
-      <c r="W14" s="6" t="n">
-        <v>0.7368192564223861</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>675</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>801895</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>801895</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>801895</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5" t="n">
-        <v>1046</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>811588</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>811588</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>811588</v>
-      </c>
-      <c r="N15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="5" t="n">
-        <v>1721</v>
-      </c>
-      <c r="R15" s="5" t="n">
-        <v>1613483</v>
-      </c>
-      <c r="S15" s="5" t="n">
-        <v>1613483</v>
-      </c>
-      <c r="T15" s="5" t="n">
-        <v>1613483</v>
-      </c>
-      <c r="U15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W15" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Capitales</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>151</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>159048</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>135417</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>184770</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>0.1608264952588673</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>0.1369313712130899</v>
-      </c>
-      <c r="I16" s="6" t="n">
-        <v>0.1868360375344328</v>
-      </c>
-      <c r="J16" s="5" t="n">
-        <v>267</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>196295</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>175529</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>218465</v>
-      </c>
-      <c r="N16" s="6" t="n">
-        <v>0.1759574098546107</v>
-      </c>
-      <c r="O16" s="6" t="n">
-        <v>0.1573428505674989</v>
-      </c>
-      <c r="P16" s="6" t="n">
-        <v>0.195830849907652</v>
-      </c>
-      <c r="Q16" s="5" t="n">
-        <v>418</v>
-      </c>
-      <c r="R16" s="5" t="n">
-        <v>355343</v>
-      </c>
-      <c r="S16" s="5" t="n">
-        <v>320442</v>
-      </c>
-      <c r="T16" s="5" t="n">
-        <v>387030</v>
-      </c>
-      <c r="U16" s="6" t="n">
-        <v>0.1688471940727621</v>
-      </c>
-      <c r="V16" s="6" t="n">
-        <v>0.1522633413803127</v>
-      </c>
-      <c r="W16" s="6" t="n">
-        <v>0.1839037472553238</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>188</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>187479</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>164008</v>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>215547</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>0.1895754418359513</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <v>0.1658417865584686</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>0.2179567842990764</v>
-      </c>
-      <c r="J17" s="5" t="n">
-        <v>332</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>240634</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>215973</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>265989</v>
-      </c>
-      <c r="N17" s="6" t="n">
-        <v>0.2157022329971913</v>
-      </c>
-      <c r="O17" s="6" t="n">
-        <v>0.1935971442117418</v>
-      </c>
-      <c r="P17" s="6" t="n">
-        <v>0.2384311265774045</v>
-      </c>
-      <c r="Q17" s="5" t="n">
-        <v>520</v>
-      </c>
-      <c r="R17" s="5" t="n">
-        <v>428113</v>
-      </c>
-      <c r="S17" s="5" t="n">
-        <v>392680</v>
-      </c>
-      <c r="T17" s="5" t="n">
-        <v>466381</v>
-      </c>
-      <c r="U17" s="6" t="n">
-        <v>0.2034249101910755</v>
-      </c>
-      <c r="V17" s="6" t="n">
-        <v>0.1865882107685357</v>
-      </c>
-      <c r="W17" s="6" t="n">
-        <v>0.2216086475160604</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>666</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>642416</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>612383</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>675590</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>0.6495980629051814</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <v>0.6192288633773515</v>
-      </c>
-      <c r="I18" s="6" t="n">
-        <v>0.6831423705482667</v>
-      </c>
-      <c r="J18" s="5" t="n">
-        <v>958</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>678654</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>647986</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>706555</v>
-      </c>
-      <c r="N18" s="6" t="n">
-        <v>0.6083403571481981</v>
-      </c>
-      <c r="O18" s="6" t="n">
-        <v>0.5808500064145578</v>
-      </c>
-      <c r="P18" s="6" t="n">
-        <v>0.6333514077393079</v>
-      </c>
-      <c r="Q18" s="5" t="n">
-        <v>1624</v>
-      </c>
-      <c r="R18" s="5" t="n">
-        <v>1321070</v>
-      </c>
-      <c r="S18" s="5" t="n">
-        <v>1276787</v>
-      </c>
-      <c r="T18" s="5" t="n">
-        <v>1368888</v>
-      </c>
-      <c r="U18" s="6" t="n">
-        <v>0.6277278957361625</v>
-      </c>
-      <c r="V18" s="6" t="n">
-        <v>0.6066864187320914</v>
-      </c>
-      <c r="W18" s="6" t="n">
-        <v>0.650449477078164</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>1005</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>988944</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>988944</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>988944</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>1557</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>1115582</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>1115582</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>1115582</v>
-      </c>
-      <c r="N19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="5" t="n">
-        <v>2562</v>
-      </c>
-      <c r="R19" s="5" t="n">
-        <v>2104526</v>
-      </c>
-      <c r="S19" s="5" t="n">
-        <v>2104526</v>
-      </c>
-      <c r="T19" s="5" t="n">
-        <v>2104526</v>
-      </c>
-      <c r="U19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>268</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>294534</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>258040</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>333264</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>0.08346211214554997</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>0.07312087796040645</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>0.09443693208075171</v>
-      </c>
-      <c r="J20" s="5" t="n">
-        <v>457</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>344599</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>315921</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>382193</v>
-      </c>
-      <c r="N20" s="6" t="n">
-        <v>0.09238963978658332</v>
-      </c>
-      <c r="O20" s="6" t="n">
-        <v>0.08470077815986936</v>
-      </c>
-      <c r="P20" s="6" t="n">
-        <v>0.1024688027683727</v>
-      </c>
-      <c r="Q20" s="5" t="n">
-        <v>725</v>
-      </c>
-      <c r="R20" s="5" t="n">
-        <v>639134</v>
-      </c>
-      <c r="S20" s="5" t="n">
-        <v>586999</v>
-      </c>
-      <c r="T20" s="5" t="n">
-        <v>688147</v>
-      </c>
-      <c r="U20" s="6" t="n">
-        <v>0.08804941376775124</v>
-      </c>
-      <c r="V20" s="6" t="n">
-        <v>0.08086709724847757</v>
-      </c>
-      <c r="W20" s="6" t="n">
-        <v>0.0948017286161033</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>439</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>468365</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>429764</v>
-      </c>
-      <c r="F21" s="5" t="n">
-        <v>516893</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>0.1327204499742008</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>0.121782115853766</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>0.1464717875812137</v>
-      </c>
-      <c r="J21" s="5" t="n">
-        <v>728</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>537043</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>501196</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>573452</v>
-      </c>
-      <c r="N21" s="6" t="n">
-        <v>0.143985073861179</v>
-      </c>
-      <c r="O21" s="6" t="n">
-        <v>0.1343743481812669</v>
-      </c>
-      <c r="P21" s="6" t="n">
-        <v>0.1537466231563163</v>
-      </c>
-      <c r="Q21" s="5" t="n">
-        <v>1167</v>
-      </c>
-      <c r="R21" s="5" t="n">
-        <v>1005407</v>
-      </c>
-      <c r="S21" s="5" t="n">
-        <v>952411</v>
-      </c>
-      <c r="T21" s="5" t="n">
-        <v>1066564</v>
-      </c>
-      <c r="U21" s="6" t="n">
-        <v>0.1385086401101477</v>
-      </c>
-      <c r="V21" s="6" t="n">
-        <v>0.1312076573526623</v>
-      </c>
-      <c r="W21" s="6" t="n">
-        <v>0.1469337889618868</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>2665</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>2766058</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>2707968</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>2818259</v>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>0.7838174378802494</v>
-      </c>
-      <c r="H22" s="6" t="n">
-        <v>0.7673565876460562</v>
-      </c>
-      <c r="I22" s="6" t="n">
-        <v>0.7986096420009225</v>
-      </c>
-      <c r="J22" s="5" t="n">
-        <v>4171</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>2848207</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>2800939</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>2894595</v>
-      </c>
-      <c r="N22" s="6" t="n">
-        <v>0.7636252863522374</v>
-      </c>
-      <c r="O22" s="6" t="n">
-        <v>0.7509524376808825</v>
-      </c>
-      <c r="P22" s="6" t="n">
-        <v>0.776062207576647</v>
-      </c>
-      <c r="Q22" s="5" t="n">
-        <v>6836</v>
-      </c>
-      <c r="R22" s="5" t="n">
-        <v>5614265</v>
-      </c>
-      <c r="S22" s="5" t="n">
-        <v>5544008</v>
-      </c>
-      <c r="T22" s="5" t="n">
-        <v>5681473</v>
-      </c>
-      <c r="U22" s="6" t="n">
-        <v>0.7734419461221009</v>
-      </c>
-      <c r="V22" s="6" t="n">
-        <v>0.7637631414572211</v>
-      </c>
-      <c r="W22" s="6" t="n">
-        <v>0.7827008316950076</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>3372</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>3528957</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>3528957</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>3528957</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5" t="n">
-        <v>5356</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>3729849</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>3729849</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>3729849</v>
-      </c>
-      <c r="N23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="5" t="n">
-        <v>8728</v>
-      </c>
-      <c r="R23" s="5" t="n">
-        <v>7258806</v>
-      </c>
-      <c r="S23" s="5" t="n">
-        <v>7258806</v>
-      </c>
-      <c r="T23" s="5" t="n">
-        <v>7258806</v>
-      </c>
-      <c r="U23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A16:A19"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/data/trans_orig/P05A05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05A05-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>142978</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>124361</v>
+        <v>121592</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>168213</v>
+        <v>165044</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2066100260899328</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1797084370402175</v>
+        <v>0.1757064820093043</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2430760688005043</v>
+        <v>0.2384968710409872</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>137</v>
@@ -764,19 +764,19 @@
         <v>134423</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>113614</v>
+        <v>114486</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>156006</v>
+        <v>153547</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1955791727620295</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1653024974472563</v>
+        <v>0.1665709771863319</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2269805017391415</v>
+        <v>0.2234027906568234</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>274</v>
@@ -785,19 +785,19 @@
         <v>277401</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>248328</v>
+        <v>248561</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>307757</v>
+        <v>308785</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.201113428813317</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1800357127621729</v>
+        <v>0.1802046822594125</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2231212004649376</v>
+        <v>0.2238667963777407</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>376357</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>350347</v>
+        <v>349213</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>403040</v>
+        <v>403408</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.543855656188109</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5062687947041972</v>
+        <v>0.5046299693774136</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5824139526231402</v>
+        <v>0.5829453900977424</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>378</v>
@@ -835,19 +835,19 @@
         <v>372341</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>346491</v>
+        <v>348080</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>398271</v>
+        <v>398100</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5417383241944155</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5041277185702421</v>
+        <v>0.5064389202557149</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5794646118858791</v>
+        <v>0.5792170238602435</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>752</v>
@@ -856,19 +856,19 @@
         <v>748698</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>714633</v>
+        <v>707586</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>784681</v>
+        <v>783192</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5428006044233659</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5181035129903648</v>
+        <v>0.5129940432486012</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5688879589014419</v>
+        <v>0.567808070435156</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>172682</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>149803</v>
+        <v>151010</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>194392</v>
+        <v>195954</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2495343177219581</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2164727837797669</v>
+        <v>0.2182176732477424</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2809063858583071</v>
+        <v>0.283163286588353</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>180</v>
@@ -906,19 +906,19 @@
         <v>180544</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>160118</v>
+        <v>157050</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>203452</v>
+        <v>203511</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2626825030435551</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2329637607014162</v>
+        <v>0.2284998570505115</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.296013296032702</v>
+        <v>0.2960988308882335</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>350</v>
@@ -927,19 +927,19 @@
         <v>353226</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>320883</v>
+        <v>319865</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>385125</v>
+        <v>385602</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2560859667633172</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2326379242896734</v>
+        <v>0.2318996795662759</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2792125223478794</v>
+        <v>0.2795583649859796</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>302102</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>272775</v>
+        <v>273099</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>331899</v>
+        <v>333746</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3147355056139109</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2841817157897383</v>
+        <v>0.2845193764368558</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3457786887467924</v>
+        <v>0.3477021312752173</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>236</v>
@@ -1052,19 +1052,19 @@
         <v>255516</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>225623</v>
+        <v>229621</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>283839</v>
+        <v>283496</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2654179771380131</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2343667025969945</v>
+        <v>0.2385192097410458</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2948386095279096</v>
+        <v>0.2944817481448554</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>519</v>
@@ -1073,19 +1073,19 @@
         <v>557618</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>516440</v>
+        <v>514898</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>596616</v>
+        <v>598077</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2900404154637459</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2686220241328804</v>
+        <v>0.2678196389261577</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3103247107836327</v>
+        <v>0.311084576956238</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>464009</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>433425</v>
+        <v>432903</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>496028</v>
+        <v>493722</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4834122441770755</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4515498458805544</v>
+        <v>0.4510061567471055</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.516770484504705</v>
+        <v>0.5143683664207807</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>480</v>
@@ -1123,19 +1123,19 @@
         <v>505695</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>475373</v>
+        <v>476387</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>538011</v>
+        <v>540651</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5252916519228658</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4937954255417417</v>
+        <v>0.4948482655787363</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.558860158451683</v>
+        <v>0.5616030239550028</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>917</v>
@@ -1144,19 +1144,19 @@
         <v>969703</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>926317</v>
+        <v>926810</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1014737</v>
+        <v>1012356</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5043827952504782</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4818160417562404</v>
+        <v>0.4820720717046375</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5278068621009235</v>
+        <v>0.526568129283992</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>193750</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>168444</v>
+        <v>168854</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>222739</v>
+        <v>218698</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2018522502090135</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.175487702410546</v>
+        <v>0.1759150188052303</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2320536096208661</v>
+        <v>0.2278437392886455</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>187</v>
@@ -1194,19 +1194,19 @@
         <v>201482</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>174462</v>
+        <v>175915</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>227914</v>
+        <v>227319</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2092903709391211</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.181222807137558</v>
+        <v>0.1827321881772692</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2367459711195032</v>
+        <v>0.2361281188001368</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>361</v>
@@ -1215,19 +1215,19 @@
         <v>395232</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>359956</v>
+        <v>359113</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>432378</v>
+        <v>431823</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2055767892857758</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1872277905337661</v>
+        <v>0.186789515816627</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2248979674743959</v>
+        <v>0.2246089595243945</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>221550</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>196948</v>
+        <v>197258</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>248760</v>
+        <v>247252</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3276630155586753</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2912772504778524</v>
+        <v>0.2917357707408639</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3679055480709977</v>
+        <v>0.3656742195407092</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>245</v>
@@ -1340,19 +1340,19 @@
         <v>243271</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>217865</v>
+        <v>218372</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>268249</v>
+        <v>268358</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3557427735305926</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3185905031634565</v>
+        <v>0.3193313711978079</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3922687966184415</v>
+        <v>0.3924279814206369</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>446</v>
@@ -1361,19 +1361,19 @@
         <v>464822</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>430927</v>
+        <v>432739</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>500871</v>
+        <v>503462</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3417822601951357</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3168598436967196</v>
+        <v>0.3181921143433583</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3682888311283739</v>
+        <v>0.3701945724828881</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>356732</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>326958</v>
+        <v>331542</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>381574</v>
+        <v>384119</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5275910370807175</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4835564891240209</v>
+        <v>0.4903364454528171</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5643301348651332</v>
+        <v>0.5680948979090246</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>344</v>
@@ -1411,19 +1411,19 @@
         <v>341696</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>318119</v>
+        <v>317584</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>368708</v>
+        <v>369937</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4996714177293634</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4651946542647091</v>
+        <v>0.4644119893136335</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5391715550731337</v>
+        <v>0.5409697050337333</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>686</v>
@@ -1432,19 +1432,19 @@
         <v>698428</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>660896</v>
+        <v>657609</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>732450</v>
+        <v>736102</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5135523143761677</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4859548604734771</v>
+        <v>0.4835382425806806</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5385681989620504</v>
+        <v>0.5412538581065846</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>97870</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>80259</v>
+        <v>79104</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>116415</v>
+        <v>116208</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1447459473606072</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.118699525822112</v>
+        <v>0.1169911107798291</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1721730698676883</v>
+        <v>0.1718662060852638</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>107</v>
@@ -1482,19 +1482,19 @@
         <v>98874</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>82022</v>
+        <v>81180</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>116812</v>
+        <v>117340</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.144585808740044</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1199426010767329</v>
+        <v>0.1187115452271719</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1708168226518718</v>
+        <v>0.1715895390731139</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>203</v>
@@ -1503,19 +1503,19 @@
         <v>196744</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>172534</v>
+        <v>171112</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>224178</v>
+        <v>223540</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1446654254286967</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.126863689352167</v>
+        <v>0.1258183742435302</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1648377128007622</v>
+        <v>0.164368572649716</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>405655</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>376563</v>
+        <v>376404</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>436485</v>
+        <v>436070</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4324609499849498</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4014462605771146</v>
+        <v>0.4012767582456038</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4653279039300021</v>
+        <v>0.4648859742145142</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>403</v>
@@ -1628,19 +1628,19 @@
         <v>416526</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>381785</v>
+        <v>384659</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>446920</v>
+        <v>447814</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4022067130140192</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3686595758972059</v>
+        <v>0.3714349141897148</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4315550652406997</v>
+        <v>0.4324190710517692</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>827</v>
@@ -1649,19 +1649,19 @@
         <v>822181</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>781552</v>
+        <v>776278</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>863449</v>
+        <v>864513</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.416585850201647</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3959996942607693</v>
+        <v>0.3933272484588335</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4374954531344352</v>
+        <v>0.4380345059402133</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>403400</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>370891</v>
+        <v>372681</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>431444</v>
+        <v>434040</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4300567386811912</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3953993880468532</v>
+        <v>0.3973081454442581</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4599539849219366</v>
+        <v>0.462721366603236</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>435</v>
@@ -1699,19 +1699,19 @@
         <v>453082</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>422755</v>
+        <v>420961</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>487848</v>
+        <v>482696</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4375051048204135</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4082213711352191</v>
+        <v>0.4064886467046165</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4710759733472502</v>
+        <v>0.4661010570113584</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>865</v>
@@ -1720,19 +1720,19 @@
         <v>856481</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>816711</v>
+        <v>815397</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>901683</v>
+        <v>897363</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4339650691340908</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4138143450745004</v>
+        <v>0.4131482820523393</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4568679609935162</v>
+        <v>0.454678997134514</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>128960</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>109849</v>
+        <v>109724</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>151011</v>
+        <v>149497</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.137482311333859</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1171080587027186</v>
+        <v>0.1169744393086886</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.160989509469462</v>
+        <v>0.1593761046290715</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>156</v>
@@ -1770,19 +1770,19 @@
         <v>165995</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>142271</v>
+        <v>143649</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>189821</v>
+        <v>191822</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1602881821655672</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1373799838409355</v>
+        <v>0.1387103024650405</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1832951561338666</v>
+        <v>0.185227526798062</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>292</v>
@@ -1791,19 +1791,19 @@
         <v>294955</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>263049</v>
+        <v>262035</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>323404</v>
+        <v>326092</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1494490806642623</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1332824976805414</v>
+        <v>0.1327688966413891</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1638635890333145</v>
+        <v>0.1652255805664755</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>1072285</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1024728</v>
+        <v>1017390</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1131429</v>
+        <v>1125037</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3283129318644069</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3137518984707825</v>
+        <v>0.3115049894439547</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3464216366550373</v>
+        <v>0.3444646478147092</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1021</v>
@@ -1916,19 +1916,19 @@
         <v>1049737</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>999554</v>
+        <v>994342</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1100518</v>
+        <v>1102460</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.311545999341111</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2966523829778447</v>
+        <v>0.2951053884016659</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.326617022536143</v>
+        <v>0.3271931899714423</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2066</v>
@@ -1937,19 +1937,19 @@
         <v>2122023</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2039848</v>
+        <v>2048969</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2191896</v>
+        <v>2199658</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3197988279112066</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3074147581713708</v>
+        <v>0.3087892921314209</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3303290440137069</v>
+        <v>0.3314989295410097</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>1600498</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1544236</v>
+        <v>1544300</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1654339</v>
+        <v>1661477</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4900414391987528</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4728150861918188</v>
+        <v>0.4728347919474362</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5065264961577943</v>
+        <v>0.5087119282668794</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1637</v>
@@ -1987,19 +1987,19 @@
         <v>1672814</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1615592</v>
+        <v>1617192</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1730407</v>
+        <v>1730463</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4964654690639393</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4794828423323138</v>
+        <v>0.4799577992919675</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5135581852591874</v>
+        <v>0.5135749374791957</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3220</v>
@@ -2008,19 +2008,19 @@
         <v>3273311</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3194704</v>
+        <v>3192130</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3350961</v>
+        <v>3357708</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.493303506246179</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4814569405429053</v>
+        <v>0.4810690051530504</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5050057177044298</v>
+        <v>0.5060224932136259</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>593263</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>549561</v>
+        <v>544730</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>640023</v>
+        <v>640643</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1816456289368403</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1682649092799744</v>
+        <v>0.1667856432546069</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1959626191860158</v>
+        <v>0.1961524448299793</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>630</v>
@@ -2058,19 +2058,19 @@
         <v>646895</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>603937</v>
+        <v>599845</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>695336</v>
+        <v>691072</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1919885315949496</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.179239249734223</v>
+        <v>0.1780248129106706</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2063651973203191</v>
+        <v>0.2050995383083617</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1206</v>
@@ -2079,19 +2079,19 @@
         <v>1240158</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1175210</v>
+        <v>1176079</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1303892</v>
+        <v>1305234</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1868976658426144</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1771097734927705</v>
+        <v>0.1772406223459626</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1965026949398793</v>
+        <v>0.196704976546839</v>
       </c>
     </row>
     <row r="23">
@@ -2423,19 +2423,19 @@
         <v>230909</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>205798</v>
+        <v>205148</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>259388</v>
+        <v>257666</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.330280933366901</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2943632900462329</v>
+        <v>0.2934333028056721</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3710157251460529</v>
+        <v>0.3685517913295879</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>207</v>
@@ -2444,19 +2444,19 @@
         <v>219841</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>193458</v>
+        <v>195381</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>243555</v>
+        <v>244258</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3161670470465732</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2782246179238638</v>
+        <v>0.2809896654864907</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3502722411159207</v>
+        <v>0.3512830562203387</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>425</v>
@@ -2465,19 +2465,19 @@
         <v>450750</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>417509</v>
+        <v>415349</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>490582</v>
+        <v>486090</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3232432174672886</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2994054467368752</v>
+        <v>0.2978564260321029</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3518075695034248</v>
+        <v>0.3485864094136248</v>
       </c>
     </row>
     <row r="5">
@@ -2494,19 +2494,19 @@
         <v>244073</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>215543</v>
+        <v>219535</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>268320</v>
+        <v>273547</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3491102335811515</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3083018942688274</v>
+        <v>0.3140119931192404</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3837906268803236</v>
+        <v>0.391268410709117</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>244</v>
@@ -2515,19 +2515,19 @@
         <v>262273</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>236550</v>
+        <v>237075</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>289949</v>
+        <v>288487</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3771916221516843</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3401978909546172</v>
+        <v>0.3409533222560041</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4169939036423368</v>
+        <v>0.4148915990172454</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>479</v>
@@ -2536,19 +2536,19 @@
         <v>506346</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>469782</v>
+        <v>470984</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>545271</v>
+        <v>543518</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3631126727634335</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3368914586826392</v>
+        <v>0.3377537296136991</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3910264356673353</v>
+        <v>0.389769086312298</v>
       </c>
     </row>
     <row r="6">
@@ -2565,19 +2565,19 @@
         <v>224147</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>199296</v>
+        <v>198041</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>250413</v>
+        <v>248449</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3206088330519475</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.285063234531844</v>
+        <v>0.2832681092938376</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3581784980676326</v>
+        <v>0.3553692792963872</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>198</v>
@@ -2586,19 +2586,19 @@
         <v>213217</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>188976</v>
+        <v>189279</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>239207</v>
+        <v>238088</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3066413308017426</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2717782753315499</v>
+        <v>0.2722142922789853</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3440186055402443</v>
+        <v>0.3424094640459359</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>415</v>
@@ -2607,19 +2607,19 @@
         <v>437364</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>402522</v>
+        <v>403701</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>473476</v>
+        <v>474074</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3136441097692779</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2886580544691567</v>
+        <v>0.2895034352862389</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3395408621033408</v>
+        <v>0.339969386319894</v>
       </c>
     </row>
     <row r="7">
@@ -2711,19 +2711,19 @@
         <v>377972</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>345886</v>
+        <v>348096</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>407351</v>
+        <v>410679</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3736000699656192</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3418856531619391</v>
+        <v>0.3440693180128987</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4026394089956095</v>
+        <v>0.4059289512704024</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>353</v>
@@ -2732,19 +2732,19 @@
         <v>396478</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>361705</v>
+        <v>361282</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>429007</v>
+        <v>426771</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3873619538067108</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3533879799487919</v>
+        <v>0.3529755428516989</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4191425416766338</v>
+        <v>0.4169587792637571</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>697</v>
@@ -2753,19 +2753,19 @@
         <v>774450</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>731255</v>
+        <v>722952</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>820023</v>
+        <v>814946</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.380521014273666</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3592973072757205</v>
+        <v>0.3552178788228325</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4029132048112595</v>
+        <v>0.4004184963140457</v>
       </c>
     </row>
     <row r="9">
@@ -2782,19 +2782,19 @@
         <v>436316</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>404879</v>
+        <v>405226</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>468051</v>
+        <v>471535</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4312691089203111</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4001955962381999</v>
+        <v>0.4005393872667895</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4626368316509872</v>
+        <v>0.4660805027607679</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>401</v>
@@ -2803,19 +2803,19 @@
         <v>435299</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>402705</v>
+        <v>404973</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>469976</v>
+        <v>466881</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4252899640851694</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3934460228680767</v>
+        <v>0.3956613506121059</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4591694738915749</v>
+        <v>0.4561458763833438</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>806</v>
@@ -2824,19 +2824,19 @@
         <v>871615</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>825425</v>
+        <v>825232</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>915632</v>
+        <v>919730</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4282621566097415</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4055673957456192</v>
+        <v>0.4054724428654705</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4498899765810003</v>
+        <v>0.4519032131434398</v>
       </c>
     </row>
     <row r="10">
@@ -2853,19 +2853,19 @@
         <v>197414</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>172636</v>
+        <v>171851</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>225897</v>
+        <v>224337</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1951308211140697</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1706396380416003</v>
+        <v>0.1698632686725754</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2232842456617909</v>
+        <v>0.2217425686235235</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>178</v>
@@ -2874,19 +2874,19 @@
         <v>191757</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>167478</v>
+        <v>167855</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>218295</v>
+        <v>219238</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1873480821081198</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1636268994091728</v>
+        <v>0.1639957244935159</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2132754581544705</v>
+        <v>0.2141970166938212</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>359</v>
@@ -2895,19 +2895,19 @@
         <v>389171</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>355286</v>
+        <v>354444</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>429303</v>
+        <v>428728</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1912168291165925</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1745676238018408</v>
+        <v>0.1741538832276293</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2109352575104227</v>
+        <v>0.2106527735375475</v>
       </c>
     </row>
     <row r="11">
@@ -2999,19 +2999,19 @@
         <v>221109</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>196146</v>
+        <v>193635</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>248454</v>
+        <v>249156</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2931281812669674</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.260034211125563</v>
+        <v>0.2567061364254553</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.329380226978554</v>
+        <v>0.3303108202101352</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>209</v>
@@ -3020,19 +3020,19 @@
         <v>222462</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>194997</v>
+        <v>198325</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>247453</v>
+        <v>246308</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2881567788429217</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2525813216837072</v>
+        <v>0.256892152445266</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3205284240961426</v>
+        <v>0.319044384694547</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>413</v>
@@ -3041,19 +3041,19 @@
         <v>443571</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>404006</v>
+        <v>406029</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>481033</v>
+        <v>482631</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2906136395385442</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2646924003475358</v>
+        <v>0.2660173579254719</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3151580053451654</v>
+        <v>0.3162050881835737</v>
       </c>
     </row>
     <row r="13">
@@ -3070,19 +3070,19 @@
         <v>351006</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>322369</v>
+        <v>322738</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>381933</v>
+        <v>381425</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4653363022591521</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4273711598758999</v>
+        <v>0.42786069955625</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5063363437748054</v>
+        <v>0.5056625222078415</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>335</v>
@@ -3091,19 +3091,19 @@
         <v>374621</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>344370</v>
+        <v>345537</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>403634</v>
+        <v>402688</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4852491562057369</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4460655771403422</v>
+        <v>0.4475768637762324</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5228301190940758</v>
+        <v>0.5216057154838474</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>655</v>
@@ -3112,19 +3112,19 @@
         <v>725627</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>678758</v>
+        <v>682777</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>767698</v>
+        <v>769198</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4754082493496744</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4447010133952045</v>
+        <v>0.4473342933939177</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.502971926083755</v>
+        <v>0.5039543228539681</v>
       </c>
     </row>
     <row r="14">
@@ -3141,19 +3141,19 @@
         <v>182192</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>155996</v>
+        <v>158388</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>208268</v>
+        <v>206989</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2415355164738806</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.206807089078455</v>
+        <v>0.2099778764016997</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2761056366188206</v>
+        <v>0.2744095202320251</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>156</v>
@@ -3162,19 +3162,19 @@
         <v>174934</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>152172</v>
+        <v>152910</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>201581</v>
+        <v>199543</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2265940649513414</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1971098171840773</v>
+        <v>0.1980659495938326</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2611094846741909</v>
+        <v>0.2584694304849394</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>319</v>
@@ -3183,19 +3183,19 @@
         <v>357126</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>323154</v>
+        <v>323797</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>391071</v>
+        <v>395051</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2339781111117813</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2117205630007736</v>
+        <v>0.2121418051629446</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2562172345861857</v>
+        <v>0.2588251583549266</v>
       </c>
     </row>
     <row r="15">
@@ -3287,19 +3287,19 @@
         <v>270984</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>243677</v>
+        <v>241877</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>297799</v>
+        <v>301547</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2868852370767097</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.257975987476123</v>
+        <v>0.2560697674652597</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3152732375860867</v>
+        <v>0.31924158980365</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>304</v>
@@ -3308,19 +3308,19 @@
         <v>327425</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>297017</v>
+        <v>297515</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>361552</v>
+        <v>359357</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3127464109729155</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2837013823773168</v>
+        <v>0.2841774221694422</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3453428758747881</v>
+        <v>0.3432467146285749</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>561</v>
@@ -3329,19 +3329,19 @@
         <v>598409</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>558466</v>
+        <v>554936</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>641738</v>
+        <v>640723</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3004804357768615</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2804236914973176</v>
+        <v>0.2786511672853159</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3222371541480619</v>
+        <v>0.3217275522196852</v>
       </c>
     </row>
     <row r="17">
@@ -3358,19 +3358,19 @@
         <v>421667</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>392212</v>
+        <v>390434</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>452555</v>
+        <v>454274</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4464099005445945</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4152264720869623</v>
+        <v>0.413343680659928</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4791097591495246</v>
+        <v>0.4809302737666846</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>427</v>
@@ -3379,19 +3379,19 @@
         <v>444430</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>409025</v>
+        <v>411500</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>474777</v>
+        <v>475112</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4245056042253924</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3906879407550171</v>
+        <v>0.3930516696798097</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4534924454047882</v>
+        <v>0.4538121081378372</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>830</v>
@@ -3400,19 +3400,19 @@
         <v>866097</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>819336</v>
+        <v>821625</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>911216</v>
+        <v>913049</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4348948292627665</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4114145782600315</v>
+        <v>0.4125642744333259</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4575503468301713</v>
+        <v>0.4584709644765153</v>
       </c>
     </row>
     <row r="18">
@@ -3429,19 +3429,19 @@
         <v>251922</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>224647</v>
+        <v>224335</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>278114</v>
+        <v>279761</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2667048623786958</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2378288567416787</v>
+        <v>0.2374986055340008</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2944328112290328</v>
+        <v>0.2961766545553494</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>267</v>
@@ -3450,19 +3450,19 @@
         <v>275080</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>245157</v>
+        <v>246399</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>302449</v>
+        <v>302974</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2627479848016922</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2341668548643781</v>
+        <v>0.2353525098512721</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2888901147112327</v>
+        <v>0.2893918804952014</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>514</v>
@@ -3471,19 +3471,19 @@
         <v>527003</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>487119</v>
+        <v>481014</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>566225</v>
+        <v>568019</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2646247349603719</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2445979846093118</v>
+        <v>0.2415322067573877</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2843198290957411</v>
+        <v>0.2852201740653812</v>
       </c>
     </row>
     <row r="19">
@@ -3575,19 +3575,19 @@
         <v>1100975</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1041843</v>
+        <v>1045119</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1155466</v>
+        <v>1153301</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3228935142344891</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3055515732738434</v>
+        <v>0.3065122855590551</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3388746451957417</v>
+        <v>0.3382398267070387</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1073</v>
@@ -3596,19 +3596,19 @@
         <v>1166206</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1106805</v>
+        <v>1104799</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1220807</v>
+        <v>1222459</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3296400002024174</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.312849793591859</v>
+        <v>0.3122827593805887</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3450736138420546</v>
+        <v>0.3455405501869924</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2096</v>
@@ -3617,19 +3617,19 @@
         <v>2267181</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2176051</v>
+        <v>2178505</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2349029</v>
+        <v>2345655</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3263289548426631</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3132121946358293</v>
+        <v>0.3135653813926497</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3381099088747213</v>
+        <v>0.3376242125311077</v>
       </c>
     </row>
     <row r="21">
@@ -3646,19 +3646,19 @@
         <v>1453063</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1395723</v>
+        <v>1391091</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1514617</v>
+        <v>1518188</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4261540123482019</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4093372154095754</v>
+        <v>0.4079789163997334</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4442064019302701</v>
+        <v>0.4452538363913037</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1407</v>
@@ -3667,19 +3667,19 @@
         <v>1516622</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1455961</v>
+        <v>1459883</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1579051</v>
+        <v>1582306</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4286886880322768</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4115421008377171</v>
+        <v>0.4126506922961379</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4463349539886843</v>
+        <v>0.4472548362015411</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2770</v>
@@ -3688,19 +3688,19 @@
         <v>2969685</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2883016</v>
+        <v>2886640</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3064543</v>
+        <v>3058520</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4274447180303922</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4149699256033135</v>
+        <v>0.415491483018964</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4410981766728759</v>
+        <v>0.4402312794956362</v>
       </c>
     </row>
     <row r="22">
@@ -3717,19 +3717,19 @@
         <v>855676</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>802211</v>
+        <v>796681</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>905228</v>
+        <v>906704</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.250952473417309</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.235272111451682</v>
+        <v>0.2336503358055561</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.265484991429176</v>
+        <v>0.2659180264065812</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>799</v>
@@ -3738,19 +3738,19 @@
         <v>854989</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>805395</v>
+        <v>802432</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>904609</v>
+        <v>905975</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2416713117653058</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2276530502963438</v>
+        <v>0.2268156103246382</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2556970259576934</v>
+        <v>0.2560831756752246</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1607</v>
@@ -3759,19 +3759,19 @@
         <v>1710665</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1643760</v>
+        <v>1636226</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1784374</v>
+        <v>1788262</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2462263271269447</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2365962955726789</v>
+        <v>0.2355118895487988</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2568357713205783</v>
+        <v>0.2573953710409583</v>
       </c>
     </row>
     <row r="23">
@@ -4103,19 +4103,19 @@
         <v>238417</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>215256</v>
+        <v>212685</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>265721</v>
+        <v>262512</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3559968347895943</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3214123831184935</v>
+        <v>0.3175732180607298</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3967655928870868</v>
+        <v>0.3919743452020782</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>257</v>
@@ -4124,19 +4124,19 @@
         <v>252530</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>228545</v>
+        <v>227453</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>277895</v>
+        <v>277872</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3765697963847568</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3408034025946279</v>
+        <v>0.3391756090806877</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4143940381570307</v>
+        <v>0.4143595608354811</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>494</v>
@@ -4145,19 +4145,19 @@
         <v>490947</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>458524</v>
+        <v>459412</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>525878</v>
+        <v>528887</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3662901327344498</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3420992318829616</v>
+        <v>0.3427616542087412</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3923513506605712</v>
+        <v>0.3945967096483423</v>
       </c>
     </row>
     <row r="5">
@@ -4174,19 +4174,19 @@
         <v>206478</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>182938</v>
+        <v>182075</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>233178</v>
+        <v>230552</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3083054789111632</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2731561916999579</v>
+        <v>0.2718687311067055</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3481734895501223</v>
+        <v>0.3442521552931587</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>191</v>
@@ -4195,19 +4195,19 @@
         <v>195927</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>172419</v>
+        <v>174411</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>221060</v>
+        <v>220143</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2921637590242385</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.257109818556719</v>
+        <v>0.2600797143784695</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3296423756330527</v>
+        <v>0.3282740076385285</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>388</v>
@@ -4216,19 +4216,19 @@
         <v>402404</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>368275</v>
+        <v>369785</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>433496</v>
+        <v>432630</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3002292701762194</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2747658085324327</v>
+        <v>0.2758918887811428</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3234261953750835</v>
+        <v>0.3227801445654288</v>
       </c>
     </row>
     <row r="6">
@@ -4245,19 +4245,19 @@
         <v>224823</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>200410</v>
+        <v>201163</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>250834</v>
+        <v>250219</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3356976862992426</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2992460741143245</v>
+        <v>0.300369002999648</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3745367318152877</v>
+        <v>0.3736177181202595</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>216</v>
@@ -4266,19 +4266,19 @@
         <v>222149</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>199614</v>
+        <v>198507</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>248669</v>
+        <v>247384</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3312664445910046</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2976618975985756</v>
+        <v>0.2960110720849291</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3708126293338591</v>
+        <v>0.368895842085566</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>429</v>
@@ -4287,19 +4287,19 @@
         <v>446972</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>411117</v>
+        <v>413656</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>482065</v>
+        <v>482367</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3334805970893308</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3067293330108332</v>
+        <v>0.3086237261402947</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3596633607176055</v>
+        <v>0.3598885995374581</v>
       </c>
     </row>
     <row r="7">
@@ -4391,19 +4391,19 @@
         <v>433002</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>400102</v>
+        <v>401940</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>467408</v>
+        <v>466138</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4243613768757167</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3921181623314636</v>
+        <v>0.393918801088864</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4580810238050158</v>
+        <v>0.4568355504740761</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>420</v>
@@ -4412,19 +4412,19 @@
         <v>451770</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>415117</v>
+        <v>421429</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>483505</v>
+        <v>483232</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4339798774224026</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3987702631525546</v>
+        <v>0.4048328571708291</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4644648168441777</v>
+        <v>0.4642021731754249</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>821</v>
@@ -4433,19 +4433,19 @@
         <v>884772</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>837916</v>
+        <v>840922</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>929975</v>
+        <v>935446</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4292187627191524</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4064878726705471</v>
+        <v>0.4079461522487139</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4511474241403695</v>
+        <v>0.45380156604651</v>
       </c>
     </row>
     <row r="9">
@@ -4462,19 +4462,19 @@
         <v>369696</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>337929</v>
+        <v>339909</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>403728</v>
+        <v>402385</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3623182613161779</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3311856505539305</v>
+        <v>0.3331260958221616</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3956708559900856</v>
+        <v>0.3943551816974603</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>375</v>
@@ -4483,19 +4483,19 @@
         <v>396515</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>367291</v>
+        <v>366065</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>430902</v>
+        <v>428779</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3809005140239822</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3528272457443324</v>
+        <v>0.3516498461992957</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4139328444598442</v>
+        <v>0.4118939375875035</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>718</v>
@@ -4504,19 +4504,19 @@
         <v>766211</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>721846</v>
+        <v>722481</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>815760</v>
+        <v>811308</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3717023821366662</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3501801072711176</v>
+        <v>0.3504883028763655</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3957398989565883</v>
+        <v>0.3935800626786284</v>
       </c>
     </row>
     <row r="10">
@@ -4533,19 +4533,19 @@
         <v>217664</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>192274</v>
+        <v>190730</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>246221</v>
+        <v>244250</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2133203618081055</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1884369700332554</v>
+        <v>0.1869239794419606</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2413076618211444</v>
+        <v>0.2393754036821685</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>180</v>
@@ -4554,19 +4554,19 @@
         <v>192708</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>170106</v>
+        <v>168585</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>218683</v>
+        <v>218332</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1851196085536152</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1634077104006814</v>
+        <v>0.1619464512967686</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2100715643151879</v>
+        <v>0.2097340404280985</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>385</v>
@@ -4575,19 +4575,19 @@
         <v>410372</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>371802</v>
+        <v>371614</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>450671</v>
+        <v>446603</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1990788551441814</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1803678982953639</v>
+        <v>0.1802767847298651</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2186286337895967</v>
+        <v>0.2166550885352733</v>
       </c>
     </row>
     <row r="11">
@@ -4679,19 +4679,19 @@
         <v>242406</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>218469</v>
+        <v>216822</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>273536</v>
+        <v>270199</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3204625263181492</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2888175416458015</v>
+        <v>0.2866407555263114</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3616170337399229</v>
+        <v>0.3572057637400854</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>260</v>
@@ -4700,19 +4700,19 @@
         <v>282096</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>253374</v>
+        <v>255147</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>309733</v>
+        <v>307922</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3613577522879988</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3245645328506204</v>
+        <v>0.3268358685464826</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.39675895215297</v>
+        <v>0.3944393044206601</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>477</v>
@@ -4721,19 +4721,19 @@
         <v>524502</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>486193</v>
+        <v>485319</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>563574</v>
+        <v>566618</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3412324897741559</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3163089533096864</v>
+        <v>0.3157405443262615</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3666515884365772</v>
+        <v>0.3686320754622388</v>
       </c>
     </row>
     <row r="13">
@@ -4750,19 +4750,19 @@
         <v>344140</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>317930</v>
+        <v>317583</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>373856</v>
+        <v>371585</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4549559225846821</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4203055883200427</v>
+        <v>0.4198467569821425</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4942406737826338</v>
+        <v>0.4912387491902248</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>318</v>
@@ -4771,19 +4771,19 @@
         <v>334730</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>307521</v>
+        <v>306726</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>363341</v>
+        <v>364574</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4287802870761723</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3939258798885029</v>
+        <v>0.3929071943229924</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4654293340419214</v>
+        <v>0.4670095721791115</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>636</v>
@@ -4792,19 +4792,19 @@
         <v>678870</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>642151</v>
+        <v>636582</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>719066</v>
+        <v>720138</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4416617793184161</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4177725996346511</v>
+        <v>0.4141495086416624</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4678124710237787</v>
+        <v>0.4685100026230473</v>
       </c>
     </row>
     <row r="14">
@@ -4821,19 +4821,19 @@
         <v>169879</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>146735</v>
+        <v>146372</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>192441</v>
+        <v>193525</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2245815510971687</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1939842717187021</v>
+        <v>0.1935056055462948</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2544088697411225</v>
+        <v>0.2558419735715241</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>154</v>
@@ -4842,19 +4842,19 @@
         <v>163830</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>141290</v>
+        <v>142910</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>188272</v>
+        <v>189368</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2098619606358289</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1809879716496086</v>
+        <v>0.1830641521844264</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2411718394019125</v>
+        <v>0.2425753836646254</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>312</v>
@@ -4863,19 +4863,19 @@
         <v>333709</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>302395</v>
+        <v>299010</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>366988</v>
+        <v>367178</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2171057309074279</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1967333869500268</v>
+        <v>0.1945306429160247</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.238756096255044</v>
+        <v>0.2388796924778268</v>
       </c>
     </row>
     <row r="15">
@@ -4967,19 +4967,19 @@
         <v>351218</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>321413</v>
+        <v>322618</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>380185</v>
+        <v>380924</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3755141009316752</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3436472081816017</v>
+        <v>0.3449360249894177</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4064844893340397</v>
+        <v>0.4072753933229954</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>387</v>
@@ -4988,19 +4988,19 @@
         <v>422611</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>391537</v>
+        <v>390931</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>455604</v>
+        <v>454556</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.407391162218756</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3774358708545668</v>
+        <v>0.3768518206313241</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4391957273312841</v>
+        <v>0.4381849152059494</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>742</v>
@@ -5009,19 +5009,19 @@
         <v>773829</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>731529</v>
+        <v>729093</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>820241</v>
+        <v>819894</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3922772525390489</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3708337939018225</v>
+        <v>0.3695992306434423</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4158045250967572</v>
+        <v>0.4156290013229754</v>
       </c>
     </row>
     <row r="17">
@@ -5038,19 +5038,19 @@
         <v>415982</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>386279</v>
+        <v>387658</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>443470</v>
+        <v>445977</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4447586648512263</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.413000763305106</v>
+        <v>0.4144744182106708</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4741477863001913</v>
+        <v>0.4768279466234763</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>395</v>
@@ -5059,19 +5059,19 @@
         <v>426581</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>393672</v>
+        <v>396000</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>459492</v>
+        <v>458257</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4112181249682281</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3794942820411551</v>
+        <v>0.3817379835271068</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4429433200376977</v>
+        <v>0.4417531676512051</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>806</v>
@@ -5080,19 +5080,19 @@
         <v>842564</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>801139</v>
+        <v>794604</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>887907</v>
+        <v>884003</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4271207417695358</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4061212380043154</v>
+        <v>0.4028085266828486</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4501067330660422</v>
+        <v>0.4481275117734965</v>
       </c>
     </row>
     <row r="18">
@@ -5109,19 +5109,19 @@
         <v>168099</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>146051</v>
+        <v>146373</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>190514</v>
+        <v>192599</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1797272342170985</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.156154518529528</v>
+        <v>0.1564983037788653</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2036932711435258</v>
+        <v>0.205922185007729</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>171</v>
@@ -5130,19 +5130,19 @@
         <v>188167</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>165558</v>
+        <v>164656</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>218800</v>
+        <v>215582</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1813907128130159</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1595958615451313</v>
+        <v>0.1587259214807932</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2109196483820154</v>
+        <v>0.2078182096276299</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>335</v>
@@ -5151,19 +5151,19 @@
         <v>356266</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>322093</v>
+        <v>324542</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>391791</v>
+        <v>390866</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1806020056914152</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1632788229865496</v>
+        <v>0.1645202012620162</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1986104046697156</v>
+        <v>0.1981418410970095</v>
       </c>
     </row>
     <row r="19">
@@ -5255,19 +5255,19 @@
         <v>1265044</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1211029</v>
+        <v>1207307</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1319397</v>
+        <v>1327374</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3740735745445266</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3581014671436388</v>
+        <v>0.3570007669712781</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3901460036024207</v>
+        <v>0.3925047595059624</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1324</v>
@@ -5276,19 +5276,19 @@
         <v>1409008</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1349141</v>
+        <v>1350875</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1474094</v>
+        <v>1467232</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3991957638732372</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.382234376045965</v>
+        <v>0.3827257972405584</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4176355911880035</v>
+        <v>0.4156915076969925</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2534</v>
@@ -5297,19 +5297,19 @@
         <v>2674052</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2583894</v>
+        <v>2592735</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2754132</v>
+        <v>2768869</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3869033096662841</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3738586134924306</v>
+        <v>0.3751377224368039</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3984899145473121</v>
+        <v>0.4006221993482648</v>
       </c>
     </row>
     <row r="21">
@@ -5326,19 +5326,19 @@
         <v>1336296</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1276263</v>
+        <v>1278578</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1389476</v>
+        <v>1394806</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3951429242186514</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3773910753426789</v>
+        <v>0.3780756379299269</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4108683356862512</v>
+        <v>0.4124444170189679</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1279</v>
@@ -5347,19 +5347,19 @@
         <v>1353753</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1292599</v>
+        <v>1293260</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1419889</v>
+        <v>1412902</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3835411743183486</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3662151527300466</v>
+        <v>0.366402457672344</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.402278591181563</v>
+        <v>0.4002989246250986</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2548</v>
@@ -5368,19 +5368,19 @@
         <v>2690049</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2605485</v>
+        <v>2602122</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2779027</v>
+        <v>2770652</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3892179876527266</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3769825989738436</v>
+        <v>0.3764959196206603</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4020920328156769</v>
+        <v>0.4008802851070991</v>
       </c>
     </row>
     <row r="22">
@@ -5397,19 +5397,19 @@
         <v>780465</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>725749</v>
+        <v>730313</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>828949</v>
+        <v>834066</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.230783501236822</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2146040806263959</v>
+        <v>0.2159535827787968</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2451203795948341</v>
+        <v>0.2466335905493513</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>721</v>
@@ -5418,19 +5418,19 @@
         <v>766855</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>712489</v>
+        <v>715172</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>819508</v>
+        <v>818400</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2172630618084142</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2018600705735704</v>
+        <v>0.202620206039649</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2321805344251913</v>
+        <v>0.2318666066807732</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1461</v>
@@ -5439,19 +5439,19 @@
         <v>1547320</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1477386</v>
+        <v>1470218</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1624201</v>
+        <v>1618247</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2238787026809892</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.213760074866412</v>
+        <v>0.2127230177081185</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2350024330045413</v>
+        <v>0.234141065088458</v>
       </c>
     </row>
     <row r="23">
